--- a/CUDA入门(updating)/cpp&cuda关键字.xlsx
+++ b/CUDA入门(updating)/cpp&cuda关键字.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\myNotes\CUDA入门(updating)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Routhleck\Documents\GitHub\myNotes\CUDA入门(updating)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D76112-0636-41CE-8B0A-35F29E833CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF860C5-E58D-45B1-9B12-D4392ECBE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22220" yWindow="-2080" windowWidth="15360" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="8620" windowWidth="11700" windowHeight="6680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,110 @@
   </si>
   <si>
     <t>此函数在被调用时将被强制内联展开，以提高代码执行效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA中的一个类型，表示一个 CUDA Stream，用于并行执行GPU上的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinterpret_cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于进行各种不同类型的指针之间、不同类型的引用之间以及指针和能容纳指针的整数类型之间的转换。转换时，执行的是逐个比特复制的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\常用作换行符，将长代码分成多行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将汇编代码嵌入到c或c++中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉编译器，这段汇编代码可能会对程序中的变量或寄存器进行修改或者产生副作用，因此编译器不能对这段汇编代码进行优化或重排，以保证程序的正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数执行状态的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShapeHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张量形状的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER_OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册操作符，指定了它的输入、输出、属性、形状以及文档字符串等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpKernelContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorFlow 中的一个类，表示操作的上下文环境。在实现自定义操作时，可以使用它来访问输入和输出张量、执行张量操作等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cudaError_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA Runtime API 中定义的一个枚举类型，表示 CUDA API 调用时可能发生的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义的虚函数可以被派生类（derived class）重写（override），并根据具体的对象调用其特定实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__launch_bounds__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以限制每个SM上的最多线程数，同时也限制了寄存器的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__restrict__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只可以用于限定和约束指针，并表明指针是访问一个数据对象的唯一且初始的方式，即它告诉编译器，所有修改该指针所指向内存中内容的操作都必须通过该指针来修改，而不能通过其它途径（其它变量或指针）来修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="33.58203125" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -418,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -426,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -434,16 +538,121 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>